--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -21,6 +21,12 @@
   </si>
   <si>
     <t>chrome</t>
+  </si>
+  <si>
+    <t>Human Resources  Attestations Functionality</t>
+  </si>
+  <si>
+    <t>PASSED</t>
   </si>
 </sst>
 </file>
@@ -65,7 +71,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -82,6 +88,83 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
+++ b/src/test/java/ApachePOI/resource/ScenarioStatus.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="6">
   <si>
     <t>Fee Functionality</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>PASSED</t>
+  </si>
+  <si>
+    <t>Admin User should be able to Add Subject Categories</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,6 +168,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
